--- a/C语言课程讲义_笔记/B站鹏哥/2024_7_2 P_62 讲作业.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_7_2 P_62 讲作业.xlsx
@@ -15,9 +15,98 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果参数给的多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不完全初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未提供大小，但初始化了，自动数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化了第一个，不完全初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>括号错了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下标是0-9，没有10，越界访问了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逗号表达式的结果取表达式最后一句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组也是有类型的，去掉数组名就是数组的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strlen截止到\0，是9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sizeof求整个数组长度，一个字符一字节+\0，是10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲过，记得写博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -27,6 +116,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -53,8 +151,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -70,6 +169,1531 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>589933</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="228600"/>
+          <a:ext cx="4933333" cy="3228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>570863</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="5010150"/>
+          <a:ext cx="5095238" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523179</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>8800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6610350" y="3981450"/>
+          <a:ext cx="5571429" cy="5800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>580627</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>104524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="11296650"/>
+          <a:ext cx="3180952" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>532843</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>171193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="13716000"/>
+          <a:ext cx="4457143" cy="2057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>580689</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>18800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="16192500"/>
+          <a:ext cx="2685714" cy="2000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428064</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>75677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="18697575"/>
+          <a:ext cx="4485714" cy="4180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>580380</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>85079</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6391275" y="18059400"/>
+          <a:ext cx="5161905" cy="5171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>551945</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>122992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12287250" y="17459325"/>
+          <a:ext cx="4038095" cy="6666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>456502</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>28211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="30889575"/>
+          <a:ext cx="5580952" cy="2914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323107</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>18318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924050" y="24164925"/>
+          <a:ext cx="5942857" cy="5857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8881</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>8914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="30441900"/>
+          <a:ext cx="5152381" cy="4885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123345</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>161665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="37004625"/>
+          <a:ext cx="3838095" cy="2076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>437599</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>122945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629275" y="35604450"/>
+          <a:ext cx="4409524" cy="7038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>523192</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>94571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11515725" y="35985450"/>
+          <a:ext cx="5466667" cy="5428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628146</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>113844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="44300775"/>
+          <a:ext cx="4028571" cy="3647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428101</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>104426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="48577500"/>
+          <a:ext cx="4190476" cy="2790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>637601</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>66324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="52292250"/>
+          <a:ext cx="4590476" cy="2809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>170865</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>171050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="55778400"/>
+          <a:ext cx="4676190" cy="3200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>685563</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>56951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7705725" y="56416575"/>
+          <a:ext cx="1895238" cy="1590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647237</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>104313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="59845575"/>
+          <a:ext cx="3704762" cy="3695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>26743</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>94658</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="59483625"/>
+          <a:ext cx="14657143" cy="4733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7909</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>8896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="65103375"/>
+          <a:ext cx="12923809" cy="5028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>503944</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>18645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14716125" y="66732150"/>
+          <a:ext cx="7047619" cy="3238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447101</xdr:colOff>
+      <xdr:row>446</xdr:row>
+      <xdr:rowOff>18468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="71828025"/>
+          <a:ext cx="4590476" cy="4657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>8562</xdr:colOff>
+      <xdr:row>446</xdr:row>
+      <xdr:rowOff>47082</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820400" y="72170925"/>
+          <a:ext cx="7704762" cy="4342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>454</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161421</xdr:colOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>170981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="77857350"/>
+          <a:ext cx="4028571" cy="3752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>457</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485298</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>113976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8324850" y="78447900"/>
+          <a:ext cx="3819048" cy="2590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>479</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28102</xdr:colOff>
+      <xdr:row>497</xdr:row>
+      <xdr:rowOff>94864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="82219800"/>
+          <a:ext cx="3780952" cy="3085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>479</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285157</xdr:colOff>
+      <xdr:row>498</xdr:row>
+      <xdr:rowOff>161515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="82267425"/>
+          <a:ext cx="4742857" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>505</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180431</xdr:colOff>
+      <xdr:row>522</xdr:row>
+      <xdr:rowOff>47265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="86667975"/>
+          <a:ext cx="4352381" cy="2876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>505</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>589998</xdr:colOff>
+      <xdr:row>522</xdr:row>
+      <xdr:rowOff>28225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515350" y="86725125"/>
+          <a:ext cx="4419048" cy="2800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>531</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8926</xdr:colOff>
+      <xdr:row>543</xdr:row>
+      <xdr:rowOff>123567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="91154250"/>
+          <a:ext cx="4790476" cy="2066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>525</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>551549</xdr:colOff>
+      <xdr:row>574</xdr:row>
+      <xdr:rowOff>170394</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="90135075"/>
+          <a:ext cx="7209524" cy="8447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>589</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485279</xdr:colOff>
+      <xdr:row>608</xdr:row>
+      <xdr:rowOff>85314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="101041200"/>
+          <a:ext cx="3971429" cy="3285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>582</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>27965</xdr:colOff>
+      <xdr:row>631</xdr:row>
+      <xdr:rowOff>8489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="99907725"/>
+          <a:ext cx="4876190" cy="8285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>595</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>608959</xdr:colOff>
+      <xdr:row>615</xdr:row>
+      <xdr:rowOff>171011</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12630150" y="102098475"/>
+          <a:ext cx="5123809" cy="3514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>640</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304318</xdr:colOff>
+      <xdr:row>655</xdr:row>
+      <xdr:rowOff>18744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="109870875"/>
+          <a:ext cx="3857143" cy="2447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>621</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>618858</xdr:colOff>
+      <xdr:row>624</xdr:row>
+      <xdr:rowOff>57093</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12887325" y="106584750"/>
+          <a:ext cx="2133333" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>659</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466265</xdr:colOff>
+      <xdr:row>674</xdr:row>
+      <xdr:rowOff>9207</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="113023650"/>
+          <a:ext cx="3676190" cy="2542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,17 +1983,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E9:X665"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A622" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q658" sqref="Q658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="9" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="21:21" x14ac:dyDescent="0.15">
+      <c r="U36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q219" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="J290" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I293" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I295" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I297" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I299" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I318" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J334" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="377" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K377" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="387" spans="8:24" x14ac:dyDescent="0.15">
+      <c r="H387" s="1"/>
+      <c r="X387" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="429" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J429" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="431" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="K431" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="433" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K433" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="464" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K464" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="10:10" x14ac:dyDescent="0.15">
+      <c r="J488" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="514" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K514" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="646" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K646" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="665" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K665" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
